--- a/Login.xlsx
+++ b/Login.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>platinum86@mailinator.com</t>
+          <t>ramulakshmanan2010@mailinator.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,13 +503,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>Superkings</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>failed</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A3" display="platinum86@mailinator.com" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,7 +529,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -548,7 +553,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>silver.com</t>
+          <t>ramulakshmanan2010@mailinator.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/Login.xlsx
+++ b/Login.xlsx
@@ -1,42 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Login_Credentials" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="manual" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Result</t>
+  </si>
+  <si>
+    <t>platinum86@mailinator.com</t>
+  </si>
+  <si>
+    <t>Superkings9</t>
+  </si>
+  <si>
+    <t>ramulakshmanan2010@mailinator.com</t>
+  </si>
+  <si>
+    <t>silver.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,92 +78,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,152 +383,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="36.7109375" customWidth="1" min="1" max="1"/>
-    <col width="24.42578125" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>platinum86@mailinator.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Superkings9</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>ramulakshmanan2010@mailinator.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Superkings9</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>silver@mailinator.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Superkings</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" display="platinum86@mailinator.com" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId2" display="platinum86@mailinator.com"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="14.5703125" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>silver.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Superkings9</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ramulakshmanan2010@mailinator.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Superkings9</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>silver@mailinator.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Superkings</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -580,18 +485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
